--- a/High-Quality-Course-Program-July-2015.xlsx
+++ b/High-Quality-Course-Program-July-2015.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel\Documents\Programming\SoftUni\softuni-courses\high-quality-code\July-2015\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivaylo Ivanov\Documents\GitHub\HQC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22728" windowHeight="7296"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -181,9 +181,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd\ mmm"/>
+    <numFmt numFmtId="164" formatCode="dd\ mmm"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +191,31 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -213,45 +238,169 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
     <dxf>
-      <numFmt numFmtId="165" formatCode="dd\ mmm"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="major"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="dd\ mmm"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="major"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="dd\ mmm"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="dd\ mmm"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="major"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="major"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -267,18 +416,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G32" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G32" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A1:G32"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="No" dataDxfId="5"/>
-    <tableColumn id="2" name="Lecture"/>
-    <tableColumn id="3" name="Trainer" dataDxfId="4"/>
-    <tableColumn id="4" name="Date" dataDxfId="3"/>
-    <tableColumn id="5" name="Day of Week" dataDxfId="2">
+    <tableColumn id="1" name="No" dataDxfId="8"/>
+    <tableColumn id="2" name="Lecture" dataDxfId="7"/>
+    <tableColumn id="3" name="Trainer" dataDxfId="6"/>
+    <tableColumn id="4" name="Date" dataDxfId="5"/>
+    <tableColumn id="5" name="Day of Week" dataDxfId="4">
       <calculatedColumnFormula>TEXT(Table1[[#This Row],[Date]],"dddd")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Time" dataDxfId="1"/>
-    <tableColumn id="7" name="Homework" dataDxfId="0">
+    <tableColumn id="6" name="Time" dataDxfId="3"/>
+    <tableColumn id="7" name="Homework" dataDxfId="2">
       <calculatedColumnFormula>Table1[[#This Row],[Date]]+7</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -551,86 +700,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="8">
         <v>42191</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="7" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Monday</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="F2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3">
         <v>42191</v>
       </c>
-      <c r="E3" s="1" t="str">
+      <c r="E3" s="2" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Monday</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -638,23 +788,23 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D4" s="3">
         <v>42193</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" s="2" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Wednesday</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="3">
@@ -663,23 +813,23 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D5" s="3">
         <v>42194</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="2" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Thursday</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="3">
@@ -688,23 +838,23 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D6" s="3">
         <v>42194</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="2" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Thursday</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="3">
@@ -713,23 +863,23 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D7" s="3">
         <v>42198</v>
       </c>
-      <c r="E7" s="1" t="str">
+      <c r="E7" s="2" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Monday</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="3">
@@ -738,23 +888,23 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D8" s="3">
         <v>42198</v>
       </c>
-      <c r="E8" s="1" t="str">
+      <c r="E8" s="2" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Monday</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="3">
@@ -763,23 +913,23 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="3">
         <v>42200</v>
       </c>
-      <c r="E9" s="1" t="str">
+      <c r="E9" s="2" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Wednesday</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G9" s="3">
@@ -788,23 +938,23 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D10" s="3">
         <v>42200</v>
       </c>
-      <c r="E10" s="1" t="str">
+      <c r="E10" s="2" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Wednesday</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="3">
@@ -813,23 +963,23 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>6</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D11" s="3">
         <v>42201</v>
       </c>
-      <c r="E11" s="1" t="str">
+      <c r="E11" s="2" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Thursday</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="3">
@@ -838,23 +988,23 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>6</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D12" s="3">
         <v>42201</v>
       </c>
-      <c r="E12" s="1" t="str">
+      <c r="E12" s="2" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Thursday</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="3">
@@ -863,23 +1013,23 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>7</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D13" s="3">
         <v>42205</v>
       </c>
-      <c r="E13" s="1" t="str">
+      <c r="E13" s="2" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Monday</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G13" s="3">
@@ -887,48 +1037,48 @@
         <v>42212</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="12">
         <v>42206</v>
       </c>
-      <c r="E14" s="1" t="str">
+      <c r="E14" s="11" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Tuesday</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>8</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="3">
         <v>42207</v>
       </c>
-      <c r="E15" s="1" t="str">
+      <c r="E15" s="2" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Wednesday</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="3">
@@ -937,23 +1087,23 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>8</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="3">
         <v>42207</v>
       </c>
-      <c r="E16" s="1" t="str">
+      <c r="E16" s="2" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Wednesday</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="3">
@@ -962,23 +1112,23 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="A17" s="1">
+        <v>9</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="3">
         <v>42208</v>
       </c>
-      <c r="E17" s="1" t="str">
+      <c r="E17" s="2" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Thursday</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="3">
@@ -987,23 +1137,23 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="A18" s="1">
+        <v>9</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D18" s="3">
         <v>42208</v>
       </c>
-      <c r="E18" s="1" t="str">
+      <c r="E18" s="2" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Thursday</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="3">
@@ -1012,23 +1162,23 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>10</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D19" s="3">
         <v>42212</v>
       </c>
-      <c r="E19" s="1" t="str">
+      <c r="E19" s="2" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Monday</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G19" s="3">
@@ -1036,48 +1186,48 @@
         <v>42219</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="C20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="12">
         <v>42213</v>
       </c>
-      <c r="E20" s="1" t="str">
+      <c r="E20" s="11" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Tuesday</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>11</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="3">
         <v>42214</v>
       </c>
-      <c r="E21" s="1" t="str">
+      <c r="E21" s="2" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Wednesday</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G21" s="3">
@@ -1085,23 +1235,23 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>12</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D22" s="3">
         <v>42215</v>
       </c>
-      <c r="E22" s="1" t="str">
+      <c r="E22" s="2" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Thursday</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="3" t="s">
@@ -1109,71 +1259,71 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>13</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D23" s="3">
         <v>42226</v>
       </c>
-      <c r="E23" s="1" t="str">
+      <c r="E23" s="2" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Monday</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="C24" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="12">
         <v>42227</v>
       </c>
-      <c r="E24" s="1" t="str">
+      <c r="E24" s="11" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Tuesday</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>14</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D25" s="3">
         <v>42228</v>
       </c>
-      <c r="E25" s="1" t="str">
+      <c r="E25" s="2" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Wednesday</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G25" s="3" t="s">
@@ -1181,23 +1331,23 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>15</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D26" s="3">
         <v>42229</v>
       </c>
-      <c r="E26" s="1" t="str">
+      <c r="E26" s="2" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Thursday</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="3">
@@ -1206,72 +1356,72 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>16</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D27" s="3">
         <v>42233</v>
       </c>
-      <c r="E27" s="1" t="str">
+      <c r="E27" s="2" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Monday</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G27" s="3">
         <v>42239</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="C28" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="12">
         <v>42234</v>
       </c>
-      <c r="E28" s="1" t="str">
+      <c r="E28" s="11" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Tuesday</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="12">
         <f>Table1[[#This Row],[Date]]+7</f>
         <v>42241</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>17</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D29" s="3">
         <v>42235</v>
       </c>
-      <c r="E29" s="1" t="str">
+      <c r="E29" s="2" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Wednesday</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G29" s="3">
@@ -1279,23 +1429,23 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>18</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D30" s="3">
         <v>42236</v>
       </c>
-      <c r="E30" s="1" t="str">
+      <c r="E30" s="2" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Thursday</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G30" s="3">
@@ -1303,23 +1453,23 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>19</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D31" s="3">
         <v>42239</v>
       </c>
-      <c r="E31" s="1" t="str">
+      <c r="E31" s="2" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Sunday</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="2" t="s">
         <v>43</v>
       </c>
       <c r="G31" s="3" t="s">
@@ -1327,13 +1477,13 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+      <c r="B32" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="2" t="s">
         <v>42</v>
       </c>
     </row>

--- a/High-Quality-Course-Program-July-2015.xlsx
+++ b/High-Quality-Course-Program-July-2015.xlsx
@@ -218,12 +218,18 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -238,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -270,38 +276,14 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -402,6 +384,33 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -416,18 +425,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G32" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G32" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G32"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="No" dataDxfId="8"/>
-    <tableColumn id="2" name="Lecture" dataDxfId="7"/>
-    <tableColumn id="3" name="Trainer" dataDxfId="6"/>
-    <tableColumn id="4" name="Date" dataDxfId="5"/>
-    <tableColumn id="5" name="Day of Week" dataDxfId="4">
+    <tableColumn id="1" name="No" dataDxfId="6"/>
+    <tableColumn id="2" name="Lecture" dataDxfId="5"/>
+    <tableColumn id="3" name="Trainer" dataDxfId="4"/>
+    <tableColumn id="4" name="Date" dataDxfId="3"/>
+    <tableColumn id="5" name="Day of Week" dataDxfId="2">
       <calculatedColumnFormula>TEXT(Table1[[#This Row],[Date]],"dddd")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Time" dataDxfId="3"/>
-    <tableColumn id="7" name="Homework" dataDxfId="2">
+    <tableColumn id="6" name="Time" dataDxfId="1"/>
+    <tableColumn id="7" name="Homework" dataDxfId="0">
       <calculatedColumnFormula>Table1[[#This Row],[Date]]+7</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -700,14 +709,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="61" style="4" customWidth="1"/>
     <col min="3" max="3" width="17.77734375" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" style="2" customWidth="1"/>
@@ -763,101 +772,101 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="8">
         <v>42191</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="7" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Monday</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="8">
         <v>42193</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="7" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Wednesday</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="13">
         <f>Table1[[#This Row],[Date]]+7</f>
         <v>42200</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="8">
         <v>42194</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="E5" s="7" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Thursday</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="8">
         <f>Table1[[#This Row],[Date]]+7</f>
         <v>42201</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="C6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="8">
         <v>42194</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="E6" s="7" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Thursday</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="8">
         <f>Table1[[#This Row],[Date]]+7</f>
         <v>42201</v>
       </c>

--- a/High-Quality-Course-Program-July-2015.xlsx
+++ b/High-Quality-Course-Program-July-2015.xlsx
@@ -841,7 +841,7 @@
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="13">
         <f>Table1[[#This Row],[Date]]+7</f>
         <v>42201</v>
       </c>

--- a/High-Quality-Course-Program-July-2015.xlsx
+++ b/High-Quality-Course-Program-July-2015.xlsx
@@ -710,7 +710,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -866,182 +866,182 @@
       <c r="F6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="13">
         <f>Table1[[#This Row],[Date]]+7</f>
         <v>42201</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="8">
         <v>42198</v>
       </c>
-      <c r="E7" s="2" t="str">
+      <c r="E7" s="7" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Monday</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="13">
         <f>Table1[[#This Row],[Date]]+7</f>
         <v>42205</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="8">
         <v>42198</v>
       </c>
-      <c r="E8" s="2" t="str">
+      <c r="E8" s="7" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Monday</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="13">
         <f>Table1[[#This Row],[Date]]+7</f>
         <v>42205</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="8">
         <v>42200</v>
       </c>
-      <c r="E9" s="2" t="str">
+      <c r="E9" s="7" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Wednesday</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="8">
         <f>Table1[[#This Row],[Date]]+7</f>
         <v>42207</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
         <v>5</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="8">
         <v>42200</v>
       </c>
-      <c r="E10" s="2" t="str">
+      <c r="E10" s="7" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Wednesday</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="8">
         <f>Table1[[#This Row],[Date]]+7</f>
         <v>42207</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
         <v>6</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="8">
         <v>42201</v>
       </c>
-      <c r="E11" s="2" t="str">
+      <c r="E11" s="7" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Thursday</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="8">
         <f>Table1[[#This Row],[Date]]+7</f>
         <v>42208</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
         <v>6</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="8">
         <v>42201</v>
       </c>
-      <c r="E12" s="2" t="str">
+      <c r="E12" s="7" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Thursday</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="8">
         <f>Table1[[#This Row],[Date]]+7</f>
         <v>42208</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
         <v>7</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="8">
         <v>42205</v>
       </c>
-      <c r="E13" s="2" t="str">
+      <c r="E13" s="7" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Monday</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="8">
         <f>Table1[[#This Row],[Date]]+7</f>
         <v>42212</v>
       </c>

--- a/High-Quality-Course-Program-July-2015.xlsx
+++ b/High-Quality-Course-Program-July-2015.xlsx
@@ -183,7 +183,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\ mmm"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +210,15 @@
       <scheme val="major"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri Light"/>
@@ -244,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -277,6 +286,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -709,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -941,7 +960,7 @@
       <c r="F9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="13">
         <f>Table1[[#This Row],[Date]]+7</f>
         <v>42207</v>
       </c>
@@ -966,7 +985,7 @@
       <c r="F10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="13">
         <f>Table1[[#This Row],[Date]]+7</f>
         <v>42207</v>
       </c>
@@ -1046,76 +1065,76 @@
         <v>42212</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="12">
+      <c r="C14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="17">
         <v>42206</v>
       </c>
-      <c r="E14" s="11" t="str">
+      <c r="E14" s="16" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Tuesday</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+    <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
         <v>8</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="8">
         <v>42207</v>
       </c>
-      <c r="E15" s="2" t="str">
+      <c r="E15" s="7" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Wednesday</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="8">
         <f>Table1[[#This Row],[Date]]+7</f>
         <v>42214</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+    <row r="16" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
         <v>8</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="C16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="8">
         <v>42207</v>
       </c>
-      <c r="E16" s="2" t="str">
+      <c r="E16" s="7" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>Wednesday</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="8">
         <f>Table1[[#This Row],[Date]]+7</f>
         <v>42214</v>
       </c>

--- a/High-Quality-Course-Program-July-2015.xlsx
+++ b/High-Quality-Course-Program-July-2015.xlsx
@@ -729,7 +729,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G11" sqref="G11:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1010,7 +1010,7 @@
       <c r="F11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="13">
         <f>Table1[[#This Row],[Date]]+7</f>
         <v>42208</v>
       </c>
@@ -1035,7 +1035,7 @@
       <c r="F12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="13">
         <f>Table1[[#This Row],[Date]]+7</f>
         <v>42208</v>
       </c>
@@ -1060,7 +1060,7 @@
       <c r="F13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="13">
         <f>Table1[[#This Row],[Date]]+7</f>
         <v>42212</v>
       </c>

--- a/High-Quality-Course-Program-July-2015.xlsx
+++ b/High-Quality-Course-Program-July-2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22728" windowHeight="7296"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="22728" windowHeight="7296"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="49">
   <si>
     <t>Lecture</t>
   </si>
@@ -150,9 +150,6 @@
   </si>
   <si>
     <t>10:00-18:00</t>
-  </si>
-  <si>
-    <t>three days after homework deadline</t>
   </si>
   <si>
     <t>9:00-15:00</t>
@@ -315,6 +312,21 @@
         <name val="Calibri Light"/>
         <scheme val="major"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="major"/>
+      </font>
       <numFmt numFmtId="164" formatCode="dd\ mmm"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -330,21 +342,6 @@
         <name val="Calibri Light"/>
         <scheme val="major"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <scheme val="major"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -451,11 +448,11 @@
     <tableColumn id="2" name="Lecture" dataDxfId="5"/>
     <tableColumn id="3" name="Trainer" dataDxfId="4"/>
     <tableColumn id="4" name="Date" dataDxfId="3"/>
-    <tableColumn id="5" name="Day of Week" dataDxfId="2">
+    <tableColumn id="5" name="Day of Week" dataDxfId="0">
       <calculatedColumnFormula>TEXT(Table1[[#This Row],[Date]],"dddd")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Time" dataDxfId="1"/>
-    <tableColumn id="7" name="Homework" dataDxfId="0">
+    <tableColumn id="6" name="Time" dataDxfId="2"/>
+    <tableColumn id="7" name="Homework" dataDxfId="1">
       <calculatedColumnFormula>Table1[[#This Row],[Date]]+7</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -729,7 +726,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11:G13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -746,7 +743,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -782,13 +779,13 @@
       </c>
       <c r="E2" s="7" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
-        <v>Monday</v>
+        <v>понеделник</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -806,13 +803,13 @@
       </c>
       <c r="E3" s="7" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
-        <v>Monday</v>
+        <v>понеделник</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -823,14 +820,14 @@
         <v>10</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="8">
         <v>42193</v>
       </c>
       <c r="E4" s="7" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
-        <v>Wednesday</v>
+        <v>сряда</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>9</v>
@@ -848,14 +845,14 @@
         <v>11</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="8">
         <v>42194</v>
       </c>
       <c r="E5" s="7" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
-        <v>Thursday</v>
+        <v>четвъртък</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
@@ -873,14 +870,14 @@
         <v>13</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="8">
         <v>42194</v>
       </c>
       <c r="E6" s="7" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
-        <v>Thursday</v>
+        <v>четвъртък</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>12</v>
@@ -898,14 +895,14 @@
         <v>14</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="8">
         <v>42198</v>
       </c>
       <c r="E7" s="7" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
-        <v>Monday</v>
+        <v>понеделник</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>9</v>
@@ -923,14 +920,14 @@
         <v>15</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="8">
         <v>42198</v>
       </c>
       <c r="E8" s="7" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
-        <v>Monday</v>
+        <v>понеделник</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>9</v>
@@ -948,14 +945,14 @@
         <v>16</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="8">
         <v>42200</v>
       </c>
       <c r="E9" s="7" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
-        <v>Wednesday</v>
+        <v>сряда</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>9</v>
@@ -973,14 +970,14 @@
         <v>17</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="8">
         <v>42200</v>
       </c>
       <c r="E10" s="7" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
-        <v>Wednesday</v>
+        <v>сряда</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>9</v>
@@ -998,14 +995,14 @@
         <v>23</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="8">
         <v>42201</v>
       </c>
       <c r="E11" s="7" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
-        <v>Thursday</v>
+        <v>четвъртък</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>12</v>
@@ -1023,14 +1020,14 @@
         <v>24</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="8">
         <v>42201</v>
       </c>
       <c r="E12" s="7" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
-        <v>Thursday</v>
+        <v>четвъртък</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>12</v>
@@ -1048,14 +1045,14 @@
         <v>18</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="8">
         <v>42205</v>
       </c>
       <c r="E13" s="7" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
-        <v>Monday</v>
+        <v>понеделник</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>9</v>
@@ -1073,20 +1070,20 @@
         <v>38</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14" s="17">
         <v>42206</v>
       </c>
       <c r="E14" s="16" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
-        <v>Tuesday</v>
+        <v>вторник</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1097,19 +1094,19 @@
         <v>19</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8">
         <v>42207</v>
       </c>
       <c r="E15" s="7" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
-        <v>Wednesday</v>
+        <v>сряда</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="13">
         <f>Table1[[#This Row],[Date]]+7</f>
         <v>42214</v>
       </c>
@@ -1122,44 +1119,44 @@
         <v>20</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8">
         <v>42207</v>
       </c>
       <c r="E16" s="7" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
-        <v>Wednesday</v>
+        <v>сряда</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="13">
         <f>Table1[[#This Row],[Date]]+7</f>
         <v>42214</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+    <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
         <v>9</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="C17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="8">
         <v>42208</v>
       </c>
-      <c r="E17" s="2" t="str">
-        <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
-        <v>Thursday</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="E17" s="7" t="str">
+        <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
+        <v>четвъртък</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="8">
         <f>Table1[[#This Row],[Date]]+7</f>
         <v>42215</v>
       </c>
@@ -1172,21 +1169,21 @@
         <v>22</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="3">
-        <v>42208</v>
+        <v>42212</v>
       </c>
       <c r="E18" s="2" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
-        <v>Thursday</v>
+        <v>понеделник</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="3">
         <f>Table1[[#This Row],[Date]]+7</f>
-        <v>42215</v>
+        <v>42219</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1197,14 +1194,14 @@
         <v>21</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="3">
         <v>42212</v>
       </c>
       <c r="E19" s="2" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
-        <v>Monday</v>
+        <v>понеделник</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>9</v>
@@ -1222,20 +1219,20 @@
         <v>27</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="12">
         <v>42213</v>
       </c>
       <c r="E20" s="11" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
-        <v>Tuesday</v>
+        <v>вторник</v>
       </c>
       <c r="F20" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1246,14 +1243,14 @@
         <v>25</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="3">
         <v>42214</v>
       </c>
       <c r="E21" s="2" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
-        <v>Wednesday</v>
+        <v>сряда</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>40</v>
@@ -1270,20 +1267,20 @@
         <v>29</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D22" s="3">
         <v>42215</v>
       </c>
       <c r="E22" s="2" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
-        <v>Thursday</v>
+        <v>четвъртък</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1294,20 +1291,20 @@
         <v>30</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" s="3">
         <v>42226</v>
       </c>
       <c r="E23" s="2" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
-        <v>Monday</v>
+        <v>понеделник</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
@@ -1318,20 +1315,20 @@
         <v>28</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="12">
         <v>42227</v>
       </c>
       <c r="E24" s="11" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
-        <v>Tuesday</v>
+        <v>вторник</v>
       </c>
       <c r="F24" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1342,20 +1339,20 @@
         <v>31</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D25" s="3">
         <v>42228</v>
       </c>
       <c r="E25" s="2" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
-        <v>Wednesday</v>
+        <v>сряда</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1366,14 +1363,14 @@
         <v>32</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D26" s="3">
         <v>42229</v>
       </c>
       <c r="E26" s="2" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
-        <v>Thursday</v>
+        <v>четвъртък</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>12</v>
@@ -1391,14 +1388,14 @@
         <v>33</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" s="3">
         <v>42233</v>
       </c>
       <c r="E27" s="2" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
-        <v>Monday</v>
+        <v>понеделник</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>9</v>
@@ -1415,14 +1412,14 @@
         <v>37</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" s="12">
         <v>42234</v>
       </c>
       <c r="E28" s="11" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
-        <v>Tuesday</v>
+        <v>вторник</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>12</v>
@@ -1440,14 +1437,14 @@
         <v>36</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D29" s="3">
         <v>42235</v>
       </c>
       <c r="E29" s="2" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
-        <v>Wednesday</v>
+        <v>сряда</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>40</v>
@@ -1464,14 +1461,14 @@
         <v>34</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D30" s="3">
         <v>42236</v>
       </c>
       <c r="E30" s="2" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
-        <v>Thursday</v>
+        <v>четвъртък</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>41</v>
@@ -1485,23 +1482,23 @@
         <v>19</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D31" s="3">
         <v>42239</v>
       </c>
       <c r="E31" s="2" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
-        <v>Sunday</v>
+        <v>неделя</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1509,10 +1506,11 @@
         <v>35</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="E32" s="2" t="str">
+        <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
+        <v>събота</v>
       </c>
     </row>
   </sheetData>

--- a/High-Quality-Course-Program-July-2015.xlsx
+++ b/High-Quality-Course-Program-July-2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="22728" windowHeight="7296"/>
+    <workbookView xWindow="1872" yWindow="0" windowWidth="22728" windowHeight="7296"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -312,21 +312,6 @@
         <name val="Calibri Light"/>
         <scheme val="major"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri Light"/>
-        <scheme val="major"/>
-      </font>
       <numFmt numFmtId="164" formatCode="dd\ mmm"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -342,6 +327,21 @@
         <name val="Calibri Light"/>
         <scheme val="major"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="major"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -448,11 +448,11 @@
     <tableColumn id="2" name="Lecture" dataDxfId="5"/>
     <tableColumn id="3" name="Trainer" dataDxfId="4"/>
     <tableColumn id="4" name="Date" dataDxfId="3"/>
-    <tableColumn id="5" name="Day of Week" dataDxfId="0">
+    <tableColumn id="5" name="Day of Week" dataDxfId="2">
       <calculatedColumnFormula>TEXT(Table1[[#This Row],[Date]],"dddd")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Time" dataDxfId="2"/>
-    <tableColumn id="7" name="Homework" dataDxfId="1">
+    <tableColumn id="6" name="Time" dataDxfId="1"/>
+    <tableColumn id="7" name="Homework" dataDxfId="0">
       <calculatedColumnFormula>Table1[[#This Row],[Date]]+7</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -726,7 +726,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1156,7 +1156,7 @@
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="13">
         <f>Table1[[#This Row],[Date]]+7</f>
         <v>42215</v>
       </c>

--- a/High-Quality-Course-Program-July-2015.xlsx
+++ b/High-Quality-Course-Program-July-2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1872" yWindow="0" windowWidth="22728" windowHeight="7296"/>
+    <workbookView xWindow="2808" yWindow="0" windowWidth="22728" windowHeight="7296"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -726,7 +726,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1161,27 +1161,27 @@
         <v>42215</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+    <row r="18" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
         <v>9</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="C18" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="8">
         <v>42212</v>
       </c>
-      <c r="E18" s="2" t="str">
+      <c r="E18" s="7" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>понеделник</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="8">
         <f>Table1[[#This Row],[Date]]+7</f>
         <v>42219</v>
       </c>

--- a/High-Quality-Course-Program-July-2015.xlsx
+++ b/High-Quality-Course-Program-July-2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2808" yWindow="0" windowWidth="22728" windowHeight="7296"/>
+    <workbookView xWindow="3744" yWindow="0" windowWidth="22728" windowHeight="7296"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -725,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1186,27 +1186,27 @@
         <v>42219</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+    <row r="19" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
         <v>10</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="C19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="8">
         <v>42212</v>
       </c>
-      <c r="E19" s="2" t="str">
+      <c r="E19" s="7" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>понеделник</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="8">
         <f>Table1[[#This Row],[Date]]+7</f>
         <v>42219</v>
       </c>

--- a/High-Quality-Course-Program-July-2015.xlsx
+++ b/High-Quality-Course-Program-July-2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3744" yWindow="0" windowWidth="22728" windowHeight="7296"/>
+    <workbookView xWindow="4680" yWindow="0" windowWidth="22728" windowHeight="7296"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="51">
   <si>
     <t>Lecture</t>
   </si>
@@ -171,6 +171,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -299,7 +305,20 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -441,20 +460,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G32" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:G32"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="No" dataDxfId="6"/>
-    <tableColumn id="2" name="Lecture" dataDxfId="5"/>
-    <tableColumn id="3" name="Trainer" dataDxfId="4"/>
-    <tableColumn id="4" name="Date" dataDxfId="3"/>
-    <tableColumn id="5" name="Day of Week" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H32" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H32"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="No" dataDxfId="7"/>
+    <tableColumn id="2" name="Lecture" dataDxfId="6"/>
+    <tableColumn id="3" name="Trainer" dataDxfId="5"/>
+    <tableColumn id="4" name="Date" dataDxfId="4"/>
+    <tableColumn id="5" name="Day of Week" dataDxfId="3">
       <calculatedColumnFormula>TEXT(Table1[[#This Row],[Date]],"dddd")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Time" dataDxfId="1"/>
-    <tableColumn id="7" name="Homework" dataDxfId="0">
+    <tableColumn id="6" name="Time" dataDxfId="2"/>
+    <tableColumn id="7" name="Homework" dataDxfId="1">
       <calculatedColumnFormula>Table1[[#This Row],[Date]]+7</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="8" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -723,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -741,7 +761,7 @@
     <col min="8" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -763,8 +783,11 @@
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -788,7 +811,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -812,7 +835,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -837,7 +860,7 @@
         <v>42200</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -862,7 +885,7 @@
         <v>42201</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -887,7 +910,7 @@
         <v>42201</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -912,7 +935,7 @@
         <v>42205</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -937,7 +960,7 @@
         <v>42205</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>5</v>
       </c>
@@ -962,7 +985,7 @@
         <v>42207</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -987,7 +1010,7 @@
         <v>42207</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -1012,7 +1035,7 @@
         <v>42208</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>6</v>
       </c>
@@ -1037,7 +1060,7 @@
         <v>42208</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>7</v>
       </c>
@@ -1062,7 +1085,7 @@
         <v>42212</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>39</v>
       </c>
@@ -1085,8 +1108,9 @@
       <c r="G14" s="17" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>8</v>
       </c>
@@ -1111,7 +1135,7 @@
         <v>42214</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>8</v>
       </c>
@@ -1136,7 +1160,7 @@
         <v>42214</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>9</v>
       </c>
@@ -1161,7 +1185,7 @@
         <v>42215</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>9</v>
       </c>
@@ -1181,12 +1205,9 @@
       <c r="F18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="8">
-        <f>Table1[[#This Row],[Date]]+7</f>
-        <v>42219</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>10</v>
       </c>
@@ -1211,55 +1232,58 @@
         <v>42219</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="12">
+      <c r="C20" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="17">
         <v>42213</v>
       </c>
-      <c r="E20" s="11" t="str">
+      <c r="E20" s="16" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>вторник</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="17" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="H20" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
         <v>11</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="8">
         <v>42214</v>
       </c>
-      <c r="E21" s="2" t="str">
+      <c r="E21" s="7" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>сряда</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="13">
         <v>42214</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>12</v>
       </c>
@@ -1283,7 +1307,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>13</v>
       </c>
@@ -1307,7 +1331,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>39</v>
       </c>
@@ -1330,8 +1354,9 @@
       <c r="G24" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>14</v>
       </c>
@@ -1355,7 +1380,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>15</v>
       </c>
@@ -1380,7 +1405,7 @@
         <v>42236</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>16</v>
       </c>
@@ -1404,7 +1429,7 @@
         <v>42239</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>39</v>
       </c>
@@ -1428,8 +1453,9 @@
         <f>Table1[[#This Row],[Date]]+7</f>
         <v>42241</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>17</v>
       </c>
@@ -1453,7 +1479,7 @@
         <v>42235</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>18</v>
       </c>
@@ -1477,7 +1503,7 @@
         <v>42236</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>19</v>
       </c>
@@ -1501,7 +1527,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
         <v>35</v>
       </c>

--- a/High-Quality-Course-Program-July-2015.xlsx
+++ b/High-Quality-Course-Program-July-2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="0" windowWidth="22728" windowHeight="7296"/>
+    <workbookView xWindow="5616" yWindow="0" windowWidth="22728" windowHeight="7296"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -746,7 +746,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1283,51 +1283,51 @@
         <v>42214</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+    <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
         <v>12</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="C22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="8">
         <v>42215</v>
       </c>
-      <c r="E22" s="2" t="str">
+      <c r="E22" s="7" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>четвъртък</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+    <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
         <v>13</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="C23" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="8">
         <v>42226</v>
       </c>
-      <c r="E23" s="2" t="str">
+      <c r="E23" s="7" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>понеделник</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="8" t="s">
         <v>48</v>
       </c>
     </row>

--- a/High-Quality-Course-Program-July-2015.xlsx
+++ b/High-Quality-Course-Program-July-2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5616" yWindow="0" windowWidth="22728" windowHeight="7296"/>
+    <workbookView xWindow="6552" yWindow="0" windowWidth="22728" windowHeight="7296"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -186,7 +186,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\ mmm"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +229,15 @@
       <charset val="204"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -256,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -299,6 +308,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -746,7 +765,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1331,52 +1350,52 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
+    <row r="24" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="12">
+      <c r="C24" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="17">
         <v>42227</v>
       </c>
-      <c r="E24" s="11" t="str">
+      <c r="E24" s="16" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>вторник</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
         <v>14</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="C25" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="8">
         <v>42228</v>
       </c>
-      <c r="E25" s="2" t="str">
+      <c r="E25" s="7" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>сряда</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="8" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1455,27 +1474,27 @@
       </c>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+    <row r="29" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="18">
         <v>17</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="21">
         <v>42235</v>
       </c>
-      <c r="E29" s="2" t="str">
+      <c r="E29" s="20" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>сряда</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="21">
         <v>42235</v>
       </c>
     </row>

--- a/High-Quality-Course-Program-July-2015.xlsx
+++ b/High-Quality-Course-Program-July-2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6552" yWindow="0" windowWidth="22728" windowHeight="7296"/>
+    <workbookView xWindow="7488" yWindow="0" windowWidth="22728" windowHeight="7296"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -765,7 +765,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1399,27 +1399,27 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+    <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
         <v>15</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="C26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="8">
         <v>42229</v>
       </c>
-      <c r="E26" s="2" t="str">
+      <c r="E26" s="7" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>четвъртък</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="8">
         <f>Table1[[#This Row],[Date]]+7</f>
         <v>42236</v>
       </c>

--- a/High-Quality-Course-Program-July-2015.xlsx
+++ b/High-Quality-Course-Program-July-2015.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7488" yWindow="0" windowWidth="22728" windowHeight="7296"/>
+    <workbookView xWindow="8424" yWindow="0" windowWidth="22728" windowHeight="7296"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -764,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1424,27 +1424,27 @@
         <v>42236</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+    <row r="27" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
         <v>16</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="C27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="8">
         <v>42233</v>
       </c>
-      <c r="E27" s="2" t="str">
+      <c r="E27" s="7" t="str">
         <f>TEXT(Table1[[#This Row],[Date]],"dddd")</f>
         <v>понеделник</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="8">
         <v>42239</v>
       </c>
     </row>
